--- a/Documentación/Sprints/CasosUso_Contratos_Sprint2.xlsx
+++ b/Documentación/Sprints/CasosUso_Contratos_Sprint2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
   <si>
     <t>Cursos alternativos</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Sistema acciones</t>
   </si>
   <si>
-    <t>ingresa_menú(debate, usuario)</t>
-  </si>
-  <si>
     <t>cerrar_debate(debate)</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
   </si>
   <si>
     <t>El sistema actualiza la página</t>
-  </si>
-  <si>
-    <t>ingresa_menú(debate_usuario)</t>
   </si>
   <si>
     <t>usuario ingresó al sistema</t>
@@ -279,9 +273,6 @@
     <t xml:space="preserve">Diagramas de colaboración </t>
   </si>
   <si>
-    <t>Diagrama de clases</t>
-  </si>
-  <si>
     <t xml:space="preserve">El usuario selecciona un debate específico (en la ventana de inicio, donde se despliegan todos los debates) y se envía a una nueva ventana donde se observa el debate con todos sus detalles: título, descripción, usuario creador, fecha de creación </t>
   </si>
   <si>
@@ -358,6 +349,12 @@
   </si>
   <si>
     <t>Modelo conceptual</t>
+  </si>
+  <si>
+    <t>menu_debate(debate, usuario)</t>
+  </si>
+  <si>
+    <t>menú_debate(debate, usuario)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -518,6 +515,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -526,6 +526,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -916,13 +919,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>74761</xdr:colOff>
+      <xdr:colOff>86306</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>195589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1139607</xdr:colOff>
+      <xdr:colOff>1151152</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>374316</xdr:rowOff>
     </xdr:to>
@@ -933,8 +936,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8176024" y="2548431"/>
-          <a:ext cx="1064846" cy="1522253"/>
+          <a:off x="8514488" y="2597044"/>
+          <a:ext cx="1064846" cy="1529545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,13 +1148,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1356894</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>874</xdr:rowOff>
+      <xdr:rowOff>2090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>74761</xdr:colOff>
+      <xdr:colOff>86306</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>11569</xdr:rowOff>
+      <xdr:rowOff>12785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1163,8 +1166,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6971631" y="3309558"/>
-          <a:ext cx="1204393" cy="10695"/>
+          <a:off x="6967985" y="3361817"/>
+          <a:ext cx="1546503" cy="10695"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1255,15 +1258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2263273</xdr:colOff>
+      <xdr:colOff>2413365</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>692483</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>33421</xdr:colOff>
+      <xdr:rowOff>680938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2794001</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>933114</xdr:rowOff>
+      <xdr:rowOff>900545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1272,8 +1275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7878010" y="3045325"/>
-          <a:ext cx="256674" cy="240631"/>
+          <a:off x="8024456" y="3082393"/>
+          <a:ext cx="380636" cy="219607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1319,13 +1322,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>138546</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1131455</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>369454</xdr:rowOff>
@@ -1374,13 +1377,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1387763</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>2380672</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>371764</xdr:rowOff>
@@ -1429,13 +1432,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>849416</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>244104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1669143</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>244104</xdr:rowOff>
@@ -1479,13 +1482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>835232</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>29523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1654959</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>29523</xdr:rowOff>
@@ -1529,13 +1532,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>883723</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>3793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1703450</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>3793</xdr:rowOff>
@@ -1579,13 +1582,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>861787</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>226786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1732643</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>235858</xdr:rowOff>
@@ -1629,13 +1632,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>832758</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1703614</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>34472</xdr:rowOff>
@@ -1679,13 +1682,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>867229</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>359229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1738085</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>368301</xdr:rowOff>
@@ -1729,13 +1732,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>625929</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>369454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>635001</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
@@ -1781,13 +1784,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1885043</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>367639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1894115</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>25399</xdr:rowOff>
@@ -1831,13 +1834,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1505858</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>344716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>834571</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>199574</xdr:rowOff>
@@ -1882,7 +1885,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES_tradnl" sz="1100"/>
-            <a:t>ingresa_menú()</a:t>
+            <a:t>menu_debate()</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1891,13 +1894,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1431473</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>324759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>916214</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>179617</xdr:rowOff>
@@ -1951,13 +1954,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1351643</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>263071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>825498</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>498929</xdr:rowOff>
@@ -2011,13 +2014,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1288143</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>832756</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>143329</xdr:rowOff>
@@ -2071,13 +2074,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1538514</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>867227</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>322944</xdr:rowOff>
@@ -2131,13 +2134,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1288144</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>883560</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>312057</xdr:rowOff>
@@ -2191,13 +2194,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1097643</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>36291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1324429</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>63506</xdr:rowOff>
@@ -2250,13 +2253,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>234045</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>88902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>460831</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>116117</xdr:rowOff>
@@ -2309,13 +2312,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1211037</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>63505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>15669</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>412750</xdr:rowOff>
@@ -2362,13 +2365,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>15668</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1378857</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -2417,13 +2420,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>204359</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>107048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>18148</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>136073</xdr:rowOff>
@@ -2472,13 +2475,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>18148</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>407311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>347438</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>88902</xdr:rowOff>
@@ -2525,13 +2528,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1378857</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>407311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>204359</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>412751</xdr:rowOff>
@@ -2577,13 +2580,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1449614</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>143331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>145143</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>379189</xdr:rowOff>
@@ -2644,13 +2647,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>59874</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>395516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1469574</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>59874</xdr:rowOff>
@@ -2711,13 +2714,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>206168</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>373577</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>273791</xdr:rowOff>
@@ -2766,13 +2769,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>765957</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>129310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>107866</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>276101</xdr:rowOff>
@@ -2821,13 +2824,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>91538</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>148441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>221837</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>148441</xdr:rowOff>
@@ -2871,13 +2874,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>131123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>285337</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>140195</xdr:rowOff>
@@ -2921,13 +2924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>693551</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>273791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>702623</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>312551</xdr:rowOff>
@@ -2973,13 +2976,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>437737</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>271976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>446809</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>310736</xdr:rowOff>
@@ -3023,13 +3026,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>747980</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>249053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>212765</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>103911</xdr:rowOff>
@@ -3083,13 +3086,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>673595</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>229096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>294408</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>83954</xdr:rowOff>
@@ -3143,13 +3146,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>161471</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>116119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>388257</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>143334</xdr:rowOff>
@@ -3202,13 +3205,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>168730</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>168730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>395516</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>195945</xdr:rowOff>
@@ -3261,13 +3264,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>274865</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>143333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>41069</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>543378</xdr:rowOff>
@@ -3314,13 +3317,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>41068</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>578757</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>117929</xdr:rowOff>
@@ -3369,13 +3372,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>320473</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>241302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>778333</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>79827</xdr:rowOff>
@@ -3424,13 +3427,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>778333</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>541565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>282123</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>168730</xdr:rowOff>
@@ -3477,13 +3480,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>578757</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>541565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>320473</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>543379</xdr:rowOff>
@@ -3529,13 +3532,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>649514</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>223159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>261257</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>459017</xdr:rowOff>
@@ -3593,13 +3596,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>2289631</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>475344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>533402</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>139702</xdr:rowOff>
@@ -3652,6 +3655,2253 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rectángulo 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="5765800"/>
+          <a:ext cx="1689100" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Administración</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>520699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rectángulo 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="2501900"/>
+          <a:ext cx="1092200" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Usuario</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Conector recto 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="596900" y="2787650"/>
+          <a:ext cx="1663700" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Conector recto 102"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="508000" y="6051550"/>
+          <a:ext cx="1790700" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="CuadroTexto 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="5676900"/>
+          <a:ext cx="1714500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>despliega_menu(usu, deb)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Conector recto 105"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3352800" y="2774950"/>
+          <a:ext cx="2120900" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="CuadroTexto 108"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3479800" y="2387600"/>
+          <a:ext cx="1905000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100" baseline="0"/>
+            <a:t> deb: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>capturar_debate()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="CuadroTexto 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3479800" y="2044700"/>
+          <a:ext cx="1905000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>2:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100" baseline="0"/>
+            <a:t> usu: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>capturar_usuario()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1879600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="CuadroTexto 117"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="2451100"/>
+          <a:ext cx="1104900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>menu_debate()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>495299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="Rectángulo 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="2476500"/>
+          <a:ext cx="1689100" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Administración</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Recortar rectángulo de esquina sencilla 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="5765800"/>
+          <a:ext cx="1612900" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>Se despliega</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100" baseline="0"/>
+            <a:t> el menú correspondiente</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Rectángulo 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1663700" y="8267700"/>
+          <a:ext cx="1092200" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Usuario</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Conector recto 121"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="0" y="8553450"/>
+          <a:ext cx="1663700" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1625600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="CuadroTexto 124"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="8216900"/>
+          <a:ext cx="1447800" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>solicitar_cierre(deb)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>660399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Rectángulo 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="10363200"/>
+          <a:ext cx="1689100" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Administración</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>374650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Conector recto 127"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="241300" y="10648950"/>
+          <a:ext cx="1790700" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="CuadroTexto 128"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="10274300"/>
+          <a:ext cx="1714500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>despliega_popup()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>635000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Recortar rectángulo de esquina sencilla 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4902200" y="10350500"/>
+          <a:ext cx="1612900" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>Se despliega</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100" baseline="0"/>
+            <a:t> el pop up de confirmación</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Rectángulo 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="12915900"/>
+          <a:ext cx="1689100" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Administración</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2070100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Conector recto 131"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="279400" y="13201650"/>
+          <a:ext cx="1790700" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="CuadroTexto 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="12827000"/>
+          <a:ext cx="1714500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>cerrar_debate(deb)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Conector recto 133"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="1"/>
+          <a:endCxn id="131" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3746500" y="13201650"/>
+          <a:ext cx="2603500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="CuadroTexto 134"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="12509500"/>
+          <a:ext cx="2019300" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100" baseline="0"/>
+            <a:t> resp: capturar_respuesta()</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Rectángulo 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350000" y="12915900"/>
+          <a:ext cx="1092200" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Debate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="CuadroTexto 138"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="12852400"/>
+          <a:ext cx="2425700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>2: [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100" baseline="0"/>
+            <a:t>resp=aceptar]debate_cerrado(deb)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Rectángulo 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="15557500"/>
+          <a:ext cx="1689100" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Administración</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1879600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Conector recto 141"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="88900" y="15843250"/>
+          <a:ext cx="1790700" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="CuadroTexto 142"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15468600"/>
+          <a:ext cx="1714500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>despliega_debates()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="Recortar rectángulo de esquina sencilla 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749800" y="15544800"/>
+          <a:ext cx="2247900" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>Se despliega</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100" baseline="0"/>
+            <a:t>n los debates en pantalla, una sección para los debates activos y otra para los cerrados. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2959100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Rectángulo 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25565100" y="1879600"/>
+          <a:ext cx="1092200" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Usuario</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Conector recto 151"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="151" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="23876000" y="2159000"/>
+          <a:ext cx="1689100" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4991100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="CuadroTexto 152"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26784300" y="1765300"/>
+          <a:ext cx="1905000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100" baseline="0"/>
+            <a:t> deb: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>capturar_debate()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="CuadroTexto 154"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24079200" y="1828800"/>
+          <a:ext cx="1104900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>solicitud_ver()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4787900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="Rectángulo 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28486100" y="1879600"/>
+          <a:ext cx="1689100" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Administración</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2959100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4787900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="Conector recto 156"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="156" idx="1"/>
+          <a:endCxn id="151" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26657300" y="2165350"/>
+          <a:ext cx="1828800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1917700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3606800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Rectángulo 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25615900" y="5651500"/>
+          <a:ext cx="1689100" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Administración</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1917700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="Conector recto 160"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23736300" y="5937250"/>
+          <a:ext cx="1879600" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1701800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="CuadroTexto 161"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23926800" y="5549900"/>
+          <a:ext cx="1473200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>ventana_debate(deb)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4356100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="Recortar rectángulo de esquina sencilla 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28054300" y="5537200"/>
+          <a:ext cx="1612900" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>Se despliega</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100" baseline="0"/>
+            <a:t> la ventana del debate</a:t>
+          </a:r>
           <a:endParaRPr lang="es-ES_tradnl" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3924,9 +6174,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3936,157 +6186,163 @@
     <col min="2" max="2" width="57.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21"/>
+      <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="C2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="F2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="C2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="15"/>
+      <c r="G2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+    <row r="10" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -4094,7 +6350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4102,11 +6358,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -4121,8 +6377,8 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4133,744 +6389,751 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="44.6640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="2"/>
-    <col min="11" max="11" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="2"/>
-    <col min="14" max="14" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="22.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="44.6640625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="15" style="13" customWidth="1"/>
+    <col min="14" max="14" width="67" style="13" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="19" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+    </row>
+    <row r="2" spans="1:23" ht="38" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="I2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="S2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="K7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="K8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="K9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:23" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="K10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" ht="38" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="F2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="N2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C4" s="10" t="s">
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="P17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="P18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="6:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="I19" s="12"/>
+      <c r="P19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="P20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="21" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+    </row>
+    <row r="22" spans="6:22" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="6:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S23" s="12"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+    </row>
+    <row r="24" spans="6:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="F24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="G24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="6:22" ht="30" x14ac:dyDescent="0.2">
+      <c r="F31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="6:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="C5" s="7" t="s">
+      <c r="G34" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="F35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="G35" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="7" t="s">
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="F55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="C6" s="7" t="s">
+      <c r="G55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F56" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="C7" s="7" t="s">
+      <c r="G56" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="H7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="H8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C9" s="7" t="s">
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F59" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="H9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="7" t="s">
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="H10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="C11" s="7" t="s">
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="G61" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="K17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="K18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="3:17" ht="38" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="F19" s="11"/>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="N19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="3:17" ht="38" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="F20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="3:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="3:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="3:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="3:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="C31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="C35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C54" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="12" t="s">
+      <c r="G62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="C55" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C56" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" ht="61" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="4">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
